--- a/AutomationFramework/excel_logs/hardware_test_hw_component_test_hw_component_description_logs.xlsx
+++ b/AutomationFramework/excel_logs/hardware_test_hw_component_test_hw_component_description_logs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,69 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This test is to get description components.
+</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>&lt;class 'AutomationFramework.page_objects.hardware.hardware.Hardware'&gt;</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>hw_component_description</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;get&gt;
+  &lt;filter&gt;
+    &lt;components xmlns="http://openconfig.net/yang/platform"&gt;
+      &lt;component&gt;
+        &lt;name&gt;Waveserver-Ai&lt;/name&gt;
+        &lt;state&gt;
+          &lt;description&gt;&lt;/description&gt;
+        &lt;/state&gt;
+      &lt;/component&gt;
+    &lt;/components&gt;
+  &lt;/filter&gt;
+&lt;/get&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;rpc-reply message-id="urn:uuid:00f5907b-1911-4318-bcaf-02aa8e8d4834"
+ xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
+ ncx:last-modified="2020-10-07T13:51:28Z" ncx:etag="814"
+ xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
+ &lt;data&gt;
+  &lt;components xmlns="http://openconfig.net/yang/platform"&gt;
+   &lt;component&gt;
+    &lt;name&gt;Waveserver-Ai&lt;/name&gt;
+    &lt;state&gt;
+     &lt;description&gt;Waveserver Ai Chassis 3-slot, 1RU&lt;/description&gt;
+    &lt;/state&gt;
+   &lt;/component&gt;
+  &lt;/components&gt;
+ &lt;/data&gt;
+&lt;/rpc-reply&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/AutomationFramework/excel_logs/hardware_test_hw_component_test_hw_component_description_logs.xlsx
+++ b/AutomationFramework/excel_logs/hardware_test_hw_component_test_hw_component_description_logs.xlsx
@@ -518,7 +518,7 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:00f5907b-1911-4318-bcaf-02aa8e8d4834"
+&lt;rpc-reply message-id="urn:uuid:62a40f8d-e1b2-4dad-ab2b-0861c9087fae"
  xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
  ncx:last-modified="2020-10-07T13:51:28Z" ncx:etag="814"
  xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
